--- a/outputs/x2o.xlsx
+++ b/outputs/x2o.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,24 +436,24 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>sku</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>prijs_x2o</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>url_x2o</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>datum</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>sku</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>prijs_swnl</t>
@@ -482,6 +482,2732 @@
       <c r="J1" s="1" t="inlineStr">
         <is>
           <t>productType</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SW108328</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>384.45</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/storke-disc-spiegel-d80cm-rond-69617</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>204.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>24 hours delivery</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Spiegels</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Spiegel met verlichting</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Spiegel met verlichting</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SW161922</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>450.45</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/storke-disc-spiegel-rond-o100cm-met-geintegreerde-led-verlichting-81686</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>259.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>24 hours delivery</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Spiegels</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Spiegel met verlichting</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Spiegel met verlichting</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SW108325</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>329.45</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/storke-disc-spiegel-rond-o60cm-met-geintegreerde-led-verlichting-81685</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>169.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>24 hours delivery</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Spiegels</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Spiegel met verlichting</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Spiegel met verlichting</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SW161911</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>879.45</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/linie-paulo-halfvrijstaand-bad-175x75cm-glanzend-wit-39028</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1279.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>24 hours delivery</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Baden</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Half vrijstaande baden</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Half vrijstaande baden</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SW223273</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>599.5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/blaufoss-blackline-round-regendoucheset-59706</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>289.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0 hours delivery</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Douches</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Regendouches</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Kranen</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Regendouches</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SW223271</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>289.5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/linie-neptunus-regendoucheset-69497</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0 hours delivery</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Douches</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Regendouches</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Kranen</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Regendouches</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SW1009</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>222.69</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/linie-inloopdouche-90x200cm-helder-glas-glanzend-chroom-profiel-dou-75093-43853-43855</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>234.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>24 hours delivery</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Douches</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Inloopdouches</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SW161775</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>349</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/linie-jupiter-regendoucheset-38971</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>189.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0 hours delivery</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Douches</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Regendouches</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Kranen</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Regendouches</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SW208804</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>277.69</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/linie-inloopdouche-120x200cm-helder-glas-glanzend-chroom-profiel-dou-43858-43853-43855</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>279.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>24 hours delivery</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Douches</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Inloopdouches</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SW238204</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>365.69</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/linie-walk-in-inloopdouche-100x200cm-stripes-glas-mat-zwart-profiel-dou-73805-69754-69755</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>330.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>24 hours delivery</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Douches</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Inloopdouches</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SW209335</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>268.95</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/storke-nero-spiegel-rond-o100cm-84318</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>139.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>24 hours delivery</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Spiegels</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Standaard spiegels</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Standaard spiegels</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SW225871</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>961.95</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/linie-paulo-halfvrijstaand-bad-180x80cm-glanzend-wit-39029</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1299.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>24 hours delivery</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Baden</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Half vrijstaande baden</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Half vrijstaande baden</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SW238214</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>538.45</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/balmani-giro-spiegel-120x65cm-rechthoekig-64874</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>279.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>24 hours delivery</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Spiegels</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Spiegel met verlichting</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Spiegel met verlichting</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SW1008</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>250.19</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/linie-inloopdouche-100x200cm-helder-glas-glanzend-chroom-profiel-dou-43857-43853-43855</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>249.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>24 hours delivery</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Douches</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Inloopdouches</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SW209334</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>213.95</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/storke-nero-spiegel-rond-o80cm-84317</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>109.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>24 hours delivery</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Spiegels</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Standaard spiegels</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Standaard spiegels</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SW6238</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>234.5</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/luca-varess-sandrina-inbouwbad-180x80cm-glanzend-wit-34641</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>11 weeks delivery</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Baden</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Inbouwbaden</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Inbouwbaden</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>SW6328</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/luca-varess-rosala-inbouwbad-180x80cm-glanzend-wit-26798</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>206.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>24 hours delivery</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Baden</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Inbouwbaden</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Inbouwbaden</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>SW238202</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>343.69</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/linie-inloopdouche-120x200cm-grid-glas-mat-zwart-profiel-dou-73804-69754-69755</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>305.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3 days delivery</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Douches</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Inloopdouches</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>SW1125</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>219.5</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/luca-varess-sandrina-inbouwbad-170x75cm-glanzend-wit-58685</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>206.95</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>24 hours delivery</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Baden</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Inbouwbaden</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Inbouwbaden</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>SW238210</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>494.45</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/framed-inloopdouche-120-cm-62173</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>328.95</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>24 hours delivery</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Douches</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Inloopdouches</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>SW238201</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>310.69</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/linie-inloopdouche-90x200cm-grid-glas-mat-zwart-profiel-dou-73803-69754-69755</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>290.95</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1 weeks delivery</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Douches</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Inloopdouches</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>SW23914</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>156.75</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/linie-playa-douchebak-90x90-glanzend-wit-surface-58864</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>24 hours delivery</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Douches</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Douchebakken</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Douchebak</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Douchebakken</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>SW238222</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>307.45</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/storke-lucio-spiegel-120x65cm-rechthoekig-65695</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>194.95</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>24 hours delivery</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Spiegels</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Spiegel met verlichting</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Spiegel met verlichting</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>SW238231</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>337.7</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/luca-varess-alpha-douchehoek-met-draaideur-met-vast-zijpaneel-90cm-62995</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>399.95</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1 weeks delivery</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Douches</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Douchecabines</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Douchecabines</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>SW2328</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>389.75</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/balmani-bmss-inloopdouche-80x200cm-helder-glas-geborsteld-inox-profiel-dou-18811-26832-23277-26859-23282</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>224.95</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>24 hours delivery</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Douches</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Inloopdouches</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>SW358008</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>277.69</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/linie-inloopdouche-120x200cm-helder-glas-mat-zwart-profiel-dou-43858-69754-69755</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>284.95</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>24 hours delivery</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Douches</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Inloopdouches</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>SW238205</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>409.69</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/linie-inloopdouche-140x200cm-grid-glas-mat-zwart-profiel-dou-73806-69754-69755</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>374.95</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>24 hours delivery</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Douches</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Inloopdouches</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>SW238218</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>206.25</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/linie-lunar-spiegel-rechthoek-120x80cm-geintegreerde-led-verlichting-70972</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>249.99</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>24 hours delivery</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Spiegels</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Spiegel met verlichting</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Spiegel met verlichting</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>SW238221</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>268.95</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/storke-lucio-spiegel-100x65cm-rechthoekig-65694</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>174.95</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>24 hours delivery</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Spiegels</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Spiegel met verlichting</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Spiegel met verlichting</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>SW1211</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>274.45</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/luca-varess-soho-douchehoek-met-schuifdeur-met-vast-zijpaneel-90cm-69776</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>259.95</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>24 hours delivery</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Douches</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Douchecabines</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Douchecabines</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>SW238200</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>458.5</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/balmani-bmss-inloopdouche-80x200cm-grid-glas-mat-zwart-profiel-dou-84356-26833-26756-26860-27088</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>269.95</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>24 hours delivery</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Douches</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Inloopdouches</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>SW1208</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>290.95</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/luca-varess-soho-douchehoek-met-draaideur-met-vast-zijpaneel-90cm-69781</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>259.95</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>24 hours delivery</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Douches</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Douchecabines</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Douchecabines</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>SW238229</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>274.45</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/luca-varess-soho-douchehoek-met-schuifdeur-met-vast-zijpaneel-90cm-69776</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>329.99</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>24 hours delivery</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Douches</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Douchecabines</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Douchecabines</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>SW20529</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>109.5</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/linie-tessa-inbouwbad-170x75cm-glanzend-wit-30179</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>24 hours delivery</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Baden</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Inbouwbaden</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Inbouwbaden</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>SW237319</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>34.93</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/blaufoss-blackline-douchewiper-62429</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>24.95</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0 hours delivery</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Badkameraccessoires</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Glaswissers</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Glaswissers</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>SW238226</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>373.45</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/luca-varess-douchedeur-morano-120cm-helder-glas-63027</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>289.95</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3 days delivery</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Douches</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Douchedeuren</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Douchedeuren</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>SW238198</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>365.69</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/linie-inloopdouche-120x200cm-grid-glas-mat-zwart-profiel-dou-73809-69754-69755</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2 weeks delivery</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Douches</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Inloopdouches</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>SW208805</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>205.7</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/sanyone-inloopdouche-140x195cm-helder-glas-glanzend-chroom-profiel-dou-44166-44167</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>314.95</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>24 hours delivery</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Douches</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Inloopdouches</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>SW238219</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>169.95</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/storke-lucio-spiegel-60x65cm-rechthoekig-65690</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>139.95</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0 hours delivery</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Spiegels</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Spiegel met verlichting</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Spiegel met verlichting</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>SW238196</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>343.69</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/linie-inloopdouche-100x200cm-grid-glas-mat-zwart-profiel-dou-73808-69754-69755</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1 weeks delivery</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Douches</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Inloopdouches</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>SW238195</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>305.19</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/linie-inloopdouche-120x200cm-helder-glas-matte-strook-glanzend-chroom-profiel-dou-69760-43853-43855</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>289.95</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>24 hours delivery</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Douches</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Inloopdouches</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>SW23918</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>101.75</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/linie-mango-douchebak-120x90cm-rechthoek-acryl-wit-blinkend-30141</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>190.95</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>24 hours delivery</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Douches</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Douchebakken</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Douchebak</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Douchebakken</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>SW238211</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>549.45</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/framed-inloopdouche-140-cm-62174</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>385.95</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1 weeks delivery</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Douches</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Inloopdouches</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>SW23913</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>59.95</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/linie-mango-douchebak-80x80cm-vierkant-acryl-wit-blinkend-30135</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>24 hours delivery</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Douches</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Douchebakken</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Douchebak</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Douchebakken</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>SW238217</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>178.75</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/linie-lunar-spiegel-rechthoek-100x80cm-geintegreerde-led-verlichting-70971</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>228.99</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>24 hours delivery</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Spiegels</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Spiegel met verlichting</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Spiegel met verlichting</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>SW238199</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>409.69</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/linie-inloopdouche-140x200cm-grid-glas-mat-zwart-profiel-dou-73810-69754-69755</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3 days delivery</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Douches</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Inloopdouches</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>SW238194</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>277.69</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/linie-inloopdouche-100x200cm-helder-glas-matte-strook-glanzend-chroom-profiel-dou-69759-43853-43855</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>269.95</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>24 hours delivery</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Douches</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Inloopdouches</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>SW358009</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>321.69</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/linie-inloopdouche-140x200cm-helder-glas-mat-zwart-profiel-dou-43859-69754-69755</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>319.95</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>24 hours delivery</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Douches</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Inloopdouches</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Douchewanden</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>SW238215</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>145.75</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/linie-lunar-spiegel-rechthoek-60x80cm-geintegreerde-led-verlichting-70969</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>189.99</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>24 hours delivery</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Spiegels</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Spiegel met verlichting</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Spiegel met verlichting</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>SW23916</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>92.95</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/linie-douchebak-mango-100x90cm-30139</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>174.95</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>24 hours delivery</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Douches</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Douchebakken</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Douchebak</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Douchebakken</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>SW23915</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>246.95</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/luca-varess-soft-douchebak-100x100-wit-25618</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>SW23855</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>76.45</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/linie-douchebak-mango-90x90cm-30136</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>11 weeks delivery</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Douches</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Douchebakken</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Douchebak</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Douchebakken</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>SW23854</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>59.95</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/linie-mango-douchebak-80x80cm-vierkant-acryl-wit-blinkend-30135</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>12 weeks delivery</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Douches</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Douchebakken</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Douchebak</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Douchebakken</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>SW23856</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>246.95</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/luca-varess-soft-douchebak-100x100-wit-25618</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>24 hours delivery</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Douches</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Douchebakken</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Douchebak</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Douchebakken</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>SW23852</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>92.95</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/linie-douchebak-mango-90x90cm-30137</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>24 hours delivery</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Douches</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Douchebakken</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Douchebak</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Douchebakken</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>SW638768</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1511.95</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/luca-varess-monterosi-vrijstaand-bad-169x80cm-mat-wit-27349</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2195</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>24 hours delivery</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Baden</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Vrijstaande baden</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Vrijstaande baden</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>SW638770</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>351.45</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://www.x2o.nl/balmani-still-opzetwaskom-solid-surface-54x34x10-5cm-72606</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>25-01-2022</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>24 hours delivery</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Wastafels</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Alle wastafels</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Waskommen</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Alle wastafels</t>
         </is>
       </c>
     </row>
